--- a/data/trans_bre/P15_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,17 +641,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -661,27 +661,27 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>262,77%</t>
+          <t>262,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-21,39%</t>
+          <t>-22,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86,91%</t>
+          <t>72,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-20,91%</t>
+          <t>-20,9%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,69</t>
+          <t>0,07; 1,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 0,65</t>
+          <t>-1,23; 0,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,7</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,85</t>
+          <t>-2,42; 2,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -0,92</t>
+          <t>-8,95; -0,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-67,69; —</t>
+          <t>-36,76; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-87,03; 187,47</t>
+          <t>-85,74; 251,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 247,34</t>
+          <t>0,1; 209,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 45,02</t>
+          <t>-25,56; 47,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-36,36; -4,75</t>
+          <t>-36,91; -2,46</t>
         </is>
       </c>
     </row>
@@ -761,47 +761,47 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>394,77%</t>
+          <t>394,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>-9,59%</t>
         </is>
       </c>
     </row>
@@ -814,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,82</t>
+          <t>0,12; 1,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,92</t>
+          <t>-1,18; 0,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,89</t>
+          <t>-1,69; 2,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,07</t>
+          <t>-2,55; 4,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 5,43</t>
+          <t>-9,83; 5,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -849,17 +849,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 142,63</t>
+          <t>-36,95; 142,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,16; 54,22</t>
+          <t>-22,94; 64,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-42,05; 38,48</t>
+          <t>-44,46; 38,12</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>119,54%</t>
+          <t>135,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 8,33</t>
+          <t>-1,07; 7,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 6,14</t>
+          <t>-6,47; 6,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,61; —</t>
+          <t>-63,74; 1533,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-55,14; 151,61</t>
+          <t>-60,3; 159,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1021,27 +1021,27 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>339,32%</t>
+          <t>339,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,34%</t>
+          <t>-9,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,16%</t>
+          <t>52,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-18,45%</t>
+          <t>-18,46%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,33</t>
+          <t>0,27; 1,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,47</t>
+          <t>-0,69; 0,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,77</t>
+          <t>0,03; 2,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,57</t>
+          <t>-1,32; 2,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,58; -0,53</t>
+          <t>-7,26; -0,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,57; 1717,78</t>
+          <t>31,89; 1734,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,17; 135,96</t>
+          <t>-68,95; 167,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 135,57</t>
+          <t>-1,44; 124,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 35,99</t>
+          <t>-14,31; 38,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-32,33; -2,61</t>
+          <t>-31,47; -0,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P15_1-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,225 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,75</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,56</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>262,76%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-22,46%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>72,91%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-20,9%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.772992221378615</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1616255531368111</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.861505868667301</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2756733998490413</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-4.563321395323033</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>2.627554873460693</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1943580254097745</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8139333613295595</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.03531190333672084</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2090247063396325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 1,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 0,67</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 2,99</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; -0,6</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-36,76; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-85,74; 251,8</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 209,39</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-25,56; 47,06</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-36,91; -2,46</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.07385401221334831</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.145755325977287</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.1923333108355618</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.600539191019001</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-8.946817773622735</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3675727580002917</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8461920325996023</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.0178897183180618</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2678237477739662</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3691476249347592</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.747520563306186</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.6594684111910198</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.470188298571278</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.926013453176813</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.5965283156025544</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>2.624413612359901</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.252838086210502</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.4545648706766882</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.02461908625271439</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,73</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>394,9%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>12,99%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18,87%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>13,53%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-9,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 1,74</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 0,94</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 2,93</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,55; 4,59</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-9,83; 5,18</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,95; 142,66</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-22,94; 64,91</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-44,46; 38,12</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.8594269561074668</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1015442941444108</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.6238500737157336</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.892819104315</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.729824017317147</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.948965341668244</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.205565834353228</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1910958164823341</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.09660718178735708</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.09585120685530669</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,91</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>135,83%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,57%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.1176975374890194</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.004471309605252</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.567684104264145</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.94059239899973</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-9.828329655273407</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.368308661699843</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2666079300850077</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4445863838743807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,25</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 7,69</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 6,17</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-63,74; 1533,51</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-60,3; 159,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.74046220290504</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.9117065173715281</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.940160403273101</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.449997440763526</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.180398380326865</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>1.464323735790462</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5825723234259892</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3812196537670283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +869,209 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-3,86</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>339,35%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-9,4%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>52,84%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>7,61%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-18,46%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.4343054990735353</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.590125365481418</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.05546192275843742</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>1.157254039114598</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.007263599156460716</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 1,31</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 0,51</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 2,68</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 2,82</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; -0,12</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>31,89; 1734,87</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-68,95; 167,67</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 124,76</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-14,31; 38,81</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-31,47; -0,44</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>-1.429158249903411</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.395562217001954</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.6439630821904984</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.5944561688841382</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.249501831072501</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>7.246049600301889</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.291089640888732</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>14.33990873433694</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.58360486283344</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.7715252167109495</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.03022135609367493</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.45467470699135</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4625375735342996</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-3.862163522838463</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.393492894993536</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.05078273018877076</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5444167645505006</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.05532417419797862</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1845729995587878</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.269512537609931</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.6096921324652216</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1009622519573734</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.613918138226653</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-7.264150897940867</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.3188812526045322</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.6823886604530035</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.008157603472682753</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1685676271283338</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3147033984481589</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.30503551322997</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.494894309354645</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.75530005676542</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.548347686548107</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.1227893996263175</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>17.34867160313061</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.723871891790595</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.283437895327774</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3619387067997302</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>-0.004369913620409645</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1079,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
